--- a/Данные скачивания таблиц/Ввод в действие жилых домов, кв. м общей площади.xlsx
+++ b/Данные скачивания таблиц/Ввод в действие жилых домов, кв. м общей площади.xlsx
@@ -13,10 +13,323 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+  <si>
+    <t>Городские округа:</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>Багратионовский</t>
+  </si>
+  <si>
+    <t>Балтийский</t>
+  </si>
+  <si>
+    <t>г. Калининград</t>
+  </si>
+  <si>
+    <t>Гвардейский</t>
+  </si>
+  <si>
+    <t>Гурьевский</t>
+  </si>
+  <si>
+    <t>Гусевский</t>
+  </si>
+  <si>
+    <t>Зеленоградский</t>
+  </si>
+  <si>
+    <t>Краснознаменский</t>
+  </si>
+  <si>
+    <t>Ладушкинский</t>
+  </si>
+  <si>
+    <t>Мамоновский</t>
+  </si>
+  <si>
+    <t>Неманский</t>
+  </si>
+  <si>
+    <t>Нестеровский</t>
+  </si>
+  <si>
+    <t>Озерский</t>
+  </si>
+  <si>
+    <t>Пионерский</t>
+  </si>
+  <si>
+    <t>Полесский</t>
+  </si>
+  <si>
+    <t>Правдинский</t>
+  </si>
+  <si>
+    <t>Светловский</t>
+  </si>
+  <si>
+    <t>Светлогорский</t>
+  </si>
+  <si>
+    <t>Славский</t>
+  </si>
+  <si>
+    <t>Советский</t>
+  </si>
+  <si>
+    <t>Черняховский</t>
+  </si>
+  <si>
+    <t>Янтарный</t>
+  </si>
+  <si>
+    <t>4766</t>
+  </si>
+  <si>
+    <t>10537</t>
+  </si>
+  <si>
+    <t>352067</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>79223</t>
+  </si>
+  <si>
+    <t>6806</t>
+  </si>
+  <si>
+    <t>42652</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>831</t>
+  </si>
+  <si>
+    <t>1314</t>
+  </si>
+  <si>
+    <t>3137</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>17051</t>
+  </si>
+  <si>
+    <t>2284</t>
+  </si>
+  <si>
+    <t>694</t>
+  </si>
+  <si>
+    <t>4638</t>
+  </si>
+  <si>
+    <t>15254</t>
+  </si>
+  <si>
+    <t>1168,8</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>2052</t>
+  </si>
+  <si>
+    <t>2719</t>
+  </si>
+  <si>
+    <t>9800</t>
+  </si>
+  <si>
+    <t>2197</t>
+  </si>
+  <si>
+    <t>408714</t>
+  </si>
+  <si>
+    <t>7058</t>
+  </si>
+  <si>
+    <t>96832</t>
+  </si>
+  <si>
+    <t>1761</t>
+  </si>
+  <si>
+    <t>63738</t>
+  </si>
+  <si>
+    <t>1271</t>
+  </si>
+  <si>
+    <t>1131</t>
+  </si>
+  <si>
+    <t>2261</t>
+  </si>
+  <si>
+    <t>о</t>
+  </si>
+  <si>
+    <t>2220</t>
+  </si>
+  <si>
+    <t>1795</t>
+  </si>
+  <si>
+    <t>6132</t>
+  </si>
+  <si>
+    <t>1821</t>
+  </si>
+  <si>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>4832</t>
+  </si>
+  <si>
+    <t>13586</t>
+  </si>
+  <si>
+    <t>1222</t>
+  </si>
+  <si>
+    <t>2931</t>
+  </si>
+  <si>
+    <t>5021</t>
+  </si>
+  <si>
+    <t>4308</t>
+  </si>
+  <si>
+    <t>11288</t>
+  </si>
+  <si>
+    <t>4777</t>
+  </si>
+  <si>
+    <t>509274</t>
+  </si>
+  <si>
+    <t>9157</t>
+  </si>
+  <si>
+    <t>177466</t>
+  </si>
+  <si>
+    <t>7423</t>
+  </si>
+  <si>
+    <t>119683</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>2856</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>822</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>13851</t>
+  </si>
+  <si>
+    <t>4012</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>5894</t>
+  </si>
+  <si>
+    <t>26941</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>7833</t>
+  </si>
+  <si>
+    <t>3996</t>
+  </si>
+  <si>
+    <t>4993</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +353,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +671,956 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>5317</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2">
+        <v>19266</v>
+      </c>
+      <c r="F2">
+        <v>15323</v>
+      </c>
+      <c r="G2">
+        <v>12652</v>
+      </c>
+      <c r="H2">
+        <v>10344</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2">
+        <v>12328</v>
+      </c>
+      <c r="K2">
+        <v>12150</v>
+      </c>
+      <c r="L2">
+        <v>16854</v>
+      </c>
+      <c r="M2">
+        <v>16854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>3122</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3">
+        <v>16042</v>
+      </c>
+      <c r="F3">
+        <v>5240</v>
+      </c>
+      <c r="G3">
+        <v>4933</v>
+      </c>
+      <c r="H3">
+        <v>32223</v>
+      </c>
+      <c r="I3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3">
+        <v>6923</v>
+      </c>
+      <c r="K3">
+        <v>7140</v>
+      </c>
+      <c r="L3">
+        <v>10230</v>
+      </c>
+      <c r="M3">
+        <v>10230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>399292</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4">
+        <v>496018</v>
+      </c>
+      <c r="F4">
+        <v>564644</v>
+      </c>
+      <c r="G4">
+        <v>604350</v>
+      </c>
+      <c r="H4">
+        <v>457356</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4">
+        <v>511542</v>
+      </c>
+      <c r="K4">
+        <v>675360</v>
+      </c>
+      <c r="L4">
+        <v>604108</v>
+      </c>
+      <c r="M4">
+        <v>604108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>4009</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>11066</v>
+      </c>
+      <c r="F5">
+        <v>21091</v>
+      </c>
+      <c r="G5">
+        <v>8457</v>
+      </c>
+      <c r="H5">
+        <v>7231</v>
+      </c>
+      <c r="I5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5">
+        <v>12005</v>
+      </c>
+      <c r="K5">
+        <v>8401</v>
+      </c>
+      <c r="L5">
+        <v>9824</v>
+      </c>
+      <c r="M5">
+        <v>9824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>71311</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6">
+        <v>319029</v>
+      </c>
+      <c r="F6">
+        <v>352887</v>
+      </c>
+      <c r="G6">
+        <v>327168</v>
+      </c>
+      <c r="H6">
+        <v>187390</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6">
+        <v>179339</v>
+      </c>
+      <c r="K6">
+        <v>226879</v>
+      </c>
+      <c r="L6">
+        <v>286406</v>
+      </c>
+      <c r="M6">
+        <v>286406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>2876</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7">
+        <v>5848</v>
+      </c>
+      <c r="F7">
+        <v>11453</v>
+      </c>
+      <c r="G7">
+        <v>3638</v>
+      </c>
+      <c r="H7">
+        <v>6323</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7">
+        <v>3336</v>
+      </c>
+      <c r="K7">
+        <v>4210</v>
+      </c>
+      <c r="L7">
+        <v>10600</v>
+      </c>
+      <c r="M7">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>35898</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8">
+        <v>106515</v>
+      </c>
+      <c r="F8">
+        <v>97229</v>
+      </c>
+      <c r="G8">
+        <v>106960</v>
+      </c>
+      <c r="H8">
+        <v>101683</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8">
+        <v>120409</v>
+      </c>
+      <c r="K8">
+        <v>139034</v>
+      </c>
+      <c r="L8">
+        <v>243275</v>
+      </c>
+      <c r="M8">
+        <v>243275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>3088</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <v>910</v>
+      </c>
+      <c r="F9">
+        <v>1013</v>
+      </c>
+      <c r="G9">
+        <v>933</v>
+      </c>
+      <c r="H9">
+        <v>195</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9">
+        <v>3260</v>
+      </c>
+      <c r="K9">
+        <v>644</v>
+      </c>
+      <c r="L9">
+        <v>444</v>
+      </c>
+      <c r="M9">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>1071</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>1138</v>
+      </c>
+      <c r="F10">
+        <v>1557</v>
+      </c>
+      <c r="G10">
+        <v>1584</v>
+      </c>
+      <c r="H10">
+        <v>1010</v>
+      </c>
+      <c r="I10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10">
+        <v>796</v>
+      </c>
+      <c r="K10">
+        <v>1768</v>
+      </c>
+      <c r="L10">
+        <v>3053</v>
+      </c>
+      <c r="M10">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>1259</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11">
+        <v>2327</v>
+      </c>
+      <c r="F11">
+        <v>6976</v>
+      </c>
+      <c r="G11">
+        <v>3403</v>
+      </c>
+      <c r="H11">
+        <v>2808</v>
+      </c>
+      <c r="I11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11">
+        <v>2938</v>
+      </c>
+      <c r="K11">
+        <v>3928</v>
+      </c>
+      <c r="L11">
+        <v>3498</v>
+      </c>
+      <c r="M11">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>910</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12">
+        <v>895</v>
+      </c>
+      <c r="F12">
+        <v>2722</v>
+      </c>
+      <c r="G12">
+        <v>106</v>
+      </c>
+      <c r="H12">
+        <v>826</v>
+      </c>
+      <c r="I12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12">
+        <v>734</v>
+      </c>
+      <c r="K12">
+        <v>1129</v>
+      </c>
+      <c r="L12">
+        <v>709</v>
+      </c>
+      <c r="M12">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13">
+        <v>2359</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13">
+        <v>1083</v>
+      </c>
+      <c r="F13">
+        <v>3724</v>
+      </c>
+      <c r="G13">
+        <v>732</v>
+      </c>
+      <c r="H13">
+        <v>1550</v>
+      </c>
+      <c r="I13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13">
+        <v>3890</v>
+      </c>
+      <c r="K13">
+        <v>1286</v>
+      </c>
+      <c r="L13">
+        <v>1324</v>
+      </c>
+      <c r="M13">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14">
+        <v>222</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14">
+        <v>464</v>
+      </c>
+      <c r="F14">
+        <v>336</v>
+      </c>
+      <c r="G14">
+        <v>2321</v>
+      </c>
+      <c r="H14">
+        <v>4926</v>
+      </c>
+      <c r="I14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14">
+        <v>391</v>
+      </c>
+      <c r="K14">
+        <v>485</v>
+      </c>
+      <c r="L14">
+        <v>1071</v>
+      </c>
+      <c r="M14">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>17075</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15">
+        <v>27917</v>
+      </c>
+      <c r="F15">
+        <v>22101</v>
+      </c>
+      <c r="G15">
+        <v>24749</v>
+      </c>
+      <c r="H15">
+        <v>17940</v>
+      </c>
+      <c r="I15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15">
+        <v>24105</v>
+      </c>
+      <c r="K15">
+        <v>11556</v>
+      </c>
+      <c r="L15">
+        <v>16397</v>
+      </c>
+      <c r="M15">
+        <v>16397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16">
+        <v>2369</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16">
+        <v>3491</v>
+      </c>
+      <c r="F16">
+        <v>3502</v>
+      </c>
+      <c r="G16">
+        <v>6592</v>
+      </c>
+      <c r="H16">
+        <v>3588</v>
+      </c>
+      <c r="I16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16">
+        <v>3656</v>
+      </c>
+      <c r="K16">
+        <v>8407</v>
+      </c>
+      <c r="L16">
+        <v>3213</v>
+      </c>
+      <c r="M16">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>988</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17">
+        <v>3535</v>
+      </c>
+      <c r="F17">
+        <v>4167</v>
+      </c>
+      <c r="G17">
+        <v>4988</v>
+      </c>
+      <c r="H17">
+        <v>2428</v>
+      </c>
+      <c r="I17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17">
+        <v>3291</v>
+      </c>
+      <c r="K17">
+        <v>3291</v>
+      </c>
+      <c r="L17">
+        <v>2722</v>
+      </c>
+      <c r="M17">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18">
+        <v>5287</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18">
+        <v>15939</v>
+      </c>
+      <c r="F18">
+        <v>15676</v>
+      </c>
+      <c r="G18">
+        <v>13666</v>
+      </c>
+      <c r="H18">
+        <v>11397</v>
+      </c>
+      <c r="I18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18">
+        <v>10102</v>
+      </c>
+      <c r="K18">
+        <v>9104</v>
+      </c>
+      <c r="L18">
+        <v>7730</v>
+      </c>
+      <c r="M18">
+        <v>7730</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19">
+        <v>18422</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19">
+        <v>56905</v>
+      </c>
+      <c r="F19">
+        <v>49804</v>
+      </c>
+      <c r="G19">
+        <v>63797</v>
+      </c>
+      <c r="H19">
+        <v>27105</v>
+      </c>
+      <c r="I19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19">
+        <v>55405</v>
+      </c>
+      <c r="K19">
+        <v>29500</v>
+      </c>
+      <c r="L19">
+        <v>22789</v>
+      </c>
+      <c r="M19">
+        <v>22789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <v>1085</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20">
+        <v>3099</v>
+      </c>
+      <c r="F20">
+        <v>7566</v>
+      </c>
+      <c r="G20">
+        <v>1224</v>
+      </c>
+      <c r="H20">
+        <v>1541</v>
+      </c>
+      <c r="I20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20">
+        <v>1003</v>
+      </c>
+      <c r="K20">
+        <v>1988</v>
+      </c>
+      <c r="L20">
+        <v>2981</v>
+      </c>
+      <c r="M20">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21">
+        <v>2696</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21">
+        <v>9614</v>
+      </c>
+      <c r="F21">
+        <v>9992</v>
+      </c>
+      <c r="G21">
+        <v>6897</v>
+      </c>
+      <c r="H21">
+        <v>4759</v>
+      </c>
+      <c r="I21" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21">
+        <v>5219</v>
+      </c>
+      <c r="K21">
+        <v>4410</v>
+      </c>
+      <c r="L21">
+        <v>6139</v>
+      </c>
+      <c r="M21">
+        <v>6139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>1663</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22">
+        <v>7460</v>
+      </c>
+      <c r="F22">
+        <v>6494</v>
+      </c>
+      <c r="G22">
+        <v>6465</v>
+      </c>
+      <c r="H22">
+        <v>6102</v>
+      </c>
+      <c r="I22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22">
+        <v>5354</v>
+      </c>
+      <c r="K22">
+        <v>4638</v>
+      </c>
+      <c r="L22">
+        <v>7631</v>
+      </c>
+      <c r="M22">
+        <v>7631</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23">
+        <v>2293</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23">
+        <v>8048</v>
+      </c>
+      <c r="F23">
+        <v>3706</v>
+      </c>
+      <c r="G23">
+        <v>6800</v>
+      </c>
+      <c r="H23">
+        <v>15391</v>
+      </c>
+      <c r="I23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23">
+        <v>7003</v>
+      </c>
+      <c r="K23">
+        <v>9683</v>
+      </c>
+      <c r="L23">
+        <v>9907</v>
+      </c>
+      <c r="M23">
+        <v>9907</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>